--- a/data_classified.xlsx
+++ b/data_classified.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linjinghao/Desktop/weak_2_cool_parent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FA1D36-2EE8-8D4B-B9AC-6EEB1EC3B740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65692E14-99BE-A24A-B670-A8D3F2E50D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14480" yWindow="460" windowWidth="17460" windowHeight="16460" xr2:uid="{FC9B2EF6-BB13-FD4A-A5E0-86E48F25460F}"/>
+    <workbookView xWindow="11340" yWindow="460" windowWidth="17460" windowHeight="16420" xr2:uid="{FC9B2EF6-BB13-FD4A-A5E0-86E48F25460F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="252">
-  <si>
-    <t>打游戏</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="232">
   <si>
     <t>伟大</t>
   </si>
@@ -48,9 +45,6 @@
     <t>Not cool</t>
   </si>
   <si>
-    <t>give anything they want</t>
-  </si>
-  <si>
     <t>Interesting</t>
   </si>
   <si>
@@ -84,12 +78,6 @@
     <t>没有喜欢的</t>
   </si>
   <si>
-    <t>理解自己</t>
-  </si>
-  <si>
-    <t>和我当朋友一样相处</t>
-  </si>
-  <si>
     <t>surprise presents</t>
   </si>
   <si>
@@ -102,9 +90,6 @@
     <t>他俩开心的时候吧</t>
   </si>
   <si>
-    <t>经常与我沟通</t>
-  </si>
-  <si>
     <t>Buying me a dog</t>
   </si>
   <si>
@@ -172,9 +157,6 @@
   </si>
   <si>
     <t>open the window and let my cat escape</t>
-  </si>
-  <si>
-    <t>Discipline</t>
   </si>
   <si>
     <t>Revising</t>
@@ -760,30 +742,12 @@
     <t>善良</t>
   </si>
   <si>
-    <t xml:space="preserve"> 洒脱</t>
-  </si>
-  <si>
     <t>自信</t>
   </si>
   <si>
-    <t>愿意交流</t>
-  </si>
-  <si>
-    <t>态度</t>
-  </si>
-  <si>
-    <t>理性的爱</t>
-  </si>
-  <si>
-    <t>乐观</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 温柔</t>
   </si>
   <si>
-    <t>阳光</t>
-  </si>
-  <si>
     <t>有爱心</t>
   </si>
   <si>
@@ -802,9 +766,6 @@
     <t>self-reliance</t>
   </si>
   <si>
-    <t>enjoy their life</t>
-  </si>
-  <si>
     <t>educated</t>
   </si>
   <si>
@@ -820,21 +781,12 @@
     <t>Has some limitations</t>
   </si>
   <si>
-    <t xml:space="preserve">  Caring</t>
-  </si>
-  <si>
-    <t>Caring</t>
-  </si>
-  <si>
     <t>strict enough</t>
   </si>
   <si>
     <t>Understanding</t>
   </si>
   <si>
-    <t xml:space="preserve"> good communication within the family</t>
-  </si>
-  <si>
     <t>Don’t patronize</t>
   </si>
   <si>
@@ -844,18 +796,9 @@
     <t>有钱</t>
   </si>
   <si>
-    <t xml:space="preserve"> 不溺爱孩子</t>
-  </si>
-  <si>
-    <t>美</t>
-  </si>
-  <si>
     <t>住在哈尔滨</t>
   </si>
   <si>
-    <t>不溺爱</t>
-  </si>
-  <si>
     <t>积极</t>
   </si>
   <si>
@@ -872,9 +815,6 @@
   </si>
   <si>
     <t xml:space="preserve">rich </t>
-  </si>
-  <si>
-    <t>1.Allows u to play games whenever u want</t>
   </si>
   <si>
     <t>2.Helps u with hw when u dk</t>
@@ -1372,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D256E4C-ED4A-1E48-8EAC-C29A4E23BFA6}">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A55" zoomScale="142" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="D52" zoomScale="142" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1383,1883 +1323,1883 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B1" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="D1" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="F1" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E4" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="E6" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="F7" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E8" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="F11" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="E13" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D16" t="s">
+        <v>214</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D16" t="s">
-        <v>234</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>251</v>
-      </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D18" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J18" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="E19" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="F19" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J19" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C20" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D20" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F20" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="I20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J21" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" t="s">
         <v>176</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C22" t="s">
-        <v>188</v>
-      </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E22" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="F22" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="I22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J22" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E23" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="I23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J23" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E24" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="F24" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J24" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C25" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="E25" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J25" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C26" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E26" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="F26" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="I26" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J26" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D27" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="E27" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="I27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J27" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C28" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E28" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="I28" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J28" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J29" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E30" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="I30" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="C31" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J31" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C32" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="D32" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I32" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J32" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="C33" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D33" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E33" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J33" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C34" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D34" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E34" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="I34" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J34" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D35" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="E35" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J35" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C36" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J36" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C37" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="I37" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J37" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="C38" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D38" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="E38" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="I38" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J38" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D39" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="E39" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I39" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J39" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D40" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E40" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="F40" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="I40" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E41" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I41" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C42" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="I42" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C43" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="D43" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="E43" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="F43" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="I43" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D44" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I44" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D45" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="E45" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="I45" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J45" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C46" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I46" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D47" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="E47" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="I47" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J47" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C48" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D48" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E48" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I48" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J48" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C49" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D49" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="E49" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I49" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J49" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C50" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D50" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="E50" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I50" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J50" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D51" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="E51" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I51" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D52" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E52" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I52" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J52" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D53" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E53" t="s">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="F53" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="I53" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J53" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I54" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J54" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D55" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="E55" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F55" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="I55" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C56" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="D56" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="E56" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="I56" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J56" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B57" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C57" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="D57" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="E57" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F57" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I57" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J57" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C58" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F58" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="I58" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J58" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C59" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D59" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="E59" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F59" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I59" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J59" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B60" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D60" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="I60" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>216</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C61" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="D61" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="E61" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="F61" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="I61" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J61" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D62" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="E62" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="F62" t="s">
-        <v>49</v>
+        <v>230</v>
       </c>
       <c r="I62" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D63" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="E63" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F63" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="I63" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J63" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C64" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="I64" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J64" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" t="s">
         <v>218</v>
       </c>
-      <c r="C65" t="s">
-        <v>238</v>
-      </c>
       <c r="D65" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="E65" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="I65" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J65" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I66" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J66" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="C67" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D67" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="E67" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F67" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I67" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J67" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D68" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="E68" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="I68" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J68" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="B69" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E69" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F69" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="I69" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J69" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B70" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C70" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D70" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E70" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F70" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="I70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B71" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C71" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="E71" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F71" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="I71" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J71" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B72" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C72" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="D72" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="E72" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F72" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B73" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="F73" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B74" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C74" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C75" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E75" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
